--- a/data/case1/16/details_4.xlsx
+++ b/data/case1/16/details_4.xlsx
@@ -68,10 +68,10 @@
     <col min="10" max="10" width="3.140625" customWidth="true"/>
     <col min="11" max="11" width="3.140625" customWidth="true"/>
     <col min="12" max="12" width="3.140625" customWidth="true"/>
-    <col min="13" max="13" width="4.7109375" customWidth="true"/>
-    <col min="14" max="14" width="5.7109375" customWidth="true"/>
-    <col min="15" max="15" width="5.7109375" customWidth="true"/>
-    <col min="16" max="16" width="4.7109375" customWidth="true"/>
+    <col min="13" max="13" width="7.7109375" customWidth="true"/>
+    <col min="14" max="14" width="7.7109375" customWidth="true"/>
+    <col min="15" max="15" width="7.7109375" customWidth="true"/>
+    <col min="16" max="16" width="5.7109375" customWidth="true"/>
     <col min="17" max="17" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -113,16 +113,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.060950000000000004</v>
       </c>
       <c r="N1" s="0">
-        <v>0.044999999999999998</v>
+        <v>0.047050000000000002</v>
       </c>
       <c r="O1" s="0">
-        <v>0.087999999999999995</v>
+        <v>0.082949999999999996</v>
       </c>
       <c r="P1" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.081000000000000003</v>
       </c>
       <c r="Q1" s="0">
         <v>0.060999999999999999</v>
